--- a/PV2 Documents/PV2 Example.xlsx
+++ b/PV2 Documents/PV2 Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2771EA-C71C-4EF8-8D30-5EF1E483A16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28531B-BE3B-4ADA-AA5C-F24826150D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="285" windowWidth="16305" windowHeight="15315" activeTab="1" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
+    <workbookView xWindow="405" yWindow="1305" windowWidth="17775" windowHeight="14085" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Location</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Linear Depreciation</t>
   </si>
   <si>
-    <t>{400,400,400,300,300,300,300,300,300,300,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
     <t>https://www.energysage.com/solar/community-calculator/</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>Provide a download data button that generates a CSV file with the data in these tables.</t>
+  </si>
+  <si>
+    <t>{400,400,400,350,350,350,350,350,350,350}</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0CD79A-E372-4608-A402-3374CC94035D}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2424,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE33215-C17A-4E26-85D8-F00854C51CAB}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2608,18 +2608,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2630,31 +2630,31 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -2740,40 +2740,40 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2953,7 +2953,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3435,22 +3435,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/PV2 Documents/PV2 Example.xlsx
+++ b/PV2 Documents/PV2 Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28531B-BE3B-4ADA-AA5C-F24826150D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62EC2E6-9693-4804-B8D7-CECC881BDECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1305" windowWidth="17775" windowHeight="14085" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
+    <workbookView xWindow="14715" yWindow="510" windowWidth="13470" windowHeight="14085" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>Location</t>
   </si>
@@ -307,7 +307,40 @@
     <t>Provide a download data button that generates a CSV file with the data in these tables.</t>
   </si>
   <si>
-    <t>{400,400,400,350,350,350,350,350,350,350}</t>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Feed In Tariff</t>
+  </si>
+  <si>
+    <t>Nominal discount rate</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Consumption Escalation Rate</t>
+  </si>
+  <si>
+    <t>Production Escalation Rate</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>[400,400,400,350,350,350,350,350,350,350]</t>
+  </si>
+  <si>
+    <t>Reinvestment Rate</t>
+  </si>
+  <si>
+    <t>Demand Charge (annual)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2214,375 +2248,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0CD79A-E372-4608-A402-3374CC94035D}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>20910</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>20910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96.12</v>
+      </c>
+      <c r="C9">
+        <v>96.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <f>(1+B20)*(1+B21)-1</f>
+        <v>8.1200000000000161E-2</v>
+      </c>
+      <c r="C22">
+        <f>(1+C20)*(1+C21)-1</f>
+        <v>8.1200000000000161E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <f>B20</f>
+        <v>0.06</v>
+      </c>
+      <c r="C23">
+        <f>C20</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>308.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>10080</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C45">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>10300</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>35280</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C49">
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>9172.8000000000011</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C50">
+        <f>C49*0.26</f>
+        <v>9802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>33</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>37</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>41</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
-      <c r="B57">
+      <c r="B59">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C59">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>

--- a/PV2 Documents/PV2 Example.xlsx
+++ b/PV2 Documents/PV2 Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62EC2E6-9693-4804-B8D7-CECC881BDECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206D9DD-86B7-468E-91FD-048ECD7ECD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="510" windowWidth="13470" windowHeight="14085" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
+    <workbookView xWindow="9840" yWindow="855" windowWidth="17775" windowHeight="14085" activeTab="1" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>Location</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Demand Charge (annual)</t>
+  </si>
+  <si>
+    <t>Graph 3 is comparable to the Savings graph in EnergySage</t>
   </si>
 </sst>
 </file>
@@ -1141,6 +1144,7 @@
         <c:axId val="546408552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1824,15 +1828,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
+      <xdr:colOff>300036</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2250,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0CD79A-E372-4608-A402-3374CC94035D}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2793,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE33215-C17A-4E26-85D8-F00854C51CAB}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,6 +2997,9 @@
       <c r="F16" s="12">
         <v>0</v>
       </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3625,7 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BC914C-4253-4FF4-8F38-C987E78ED6B2}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>

--- a/PV2 Documents/PV2 Example.xlsx
+++ b/PV2 Documents/PV2 Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206D9DD-86B7-468E-91FD-048ECD7ECD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE153DE5-F99C-49EF-8A49-602E754334A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="855" windowWidth="17775" windowHeight="14085" activeTab="1" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
+    <workbookView xWindow="9105" yWindow="780" windowWidth="17775" windowHeight="14085" activeTab="1" xr2:uid="{8DB8EE56-127A-4EE4-B5E0-553AAA77F379}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>Location</t>
   </si>
@@ -271,9 +271,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Alt N</t>
-  </si>
-  <si>
     <t>Always Show</t>
   </si>
   <si>
@@ -344,13 +341,49 @@
   </si>
   <si>
     <t>Graph 3 is comparable to the Savings graph in EnergySage</t>
+  </si>
+  <si>
+    <t>totalCosts(0)</t>
+  </si>
+  <si>
+    <t>totalCosts(1)</t>
+  </si>
+  <si>
+    <t>totalCosts(2)</t>
+  </si>
+  <si>
+    <t>Alt 2 (if exists)</t>
+  </si>
+  <si>
+    <t>NS(1)</t>
+  </si>
+  <si>
+    <t>AIRR(1)</t>
+  </si>
+  <si>
+    <t>SPP(1)</t>
+  </si>
+  <si>
+    <t>NS(2)</t>
+  </si>
+  <si>
+    <t>AIRR(2)</t>
+  </si>
+  <si>
+    <t>SPP(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -deltaQuant(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -deltaQuant(2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +410,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,6 +595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,25 +910,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,186 +936,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A55-4251-B8D5-4FB011BDD612}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Results Tables'!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>…</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Results Tables'!$A$16:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Results Tables'!$E$16:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6A55-4251-B8D5-4FB011BDD612}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Results Tables'!$F$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alt N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Results Tables'!$A$16:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Results Tables'!$F$16:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A55-4251-B8D5-4FB011BDD612}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1088,6 +951,194 @@
         <c:overlap val="-27"/>
         <c:axId val="546406256"/>
         <c:axId val="546408552"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!$A$16:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6A55-4251-B8D5-4FB011BDD612}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!$A$16:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Tables'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-6A55-4251-B8D5-4FB011BDD612}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="546406256"/>
@@ -1827,16 +1878,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300036</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1543049</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2269,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2388,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>96.12</v>
@@ -2365,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2448,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>0.02</v>
@@ -2408,7 +2459,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>0.02</v>
@@ -2463,7 +2514,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <f>(1+B20)*(1+B21)-1</f>
@@ -2476,7 +2527,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <f>B20</f>
@@ -2511,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,7 +2583,7 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>4.99E-2</v>
       </c>
     </row>
@@ -2568,10 +2619,10 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,7 +2649,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2660,7 @@
         <v>0.01</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,7 +2671,7 @@
         <v>1000</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,169 +2846,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE33215-C17A-4E26-85D8-F00854C51CAB}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>69</v>
@@ -2965,661 +3018,498 @@
       <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>100</v>
       </c>
-      <c r="D16" s="21">
-        <v>150</v>
-      </c>
-      <c r="E16" s="21">
-        <v>200</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <f>A16+1</f>
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>-25</v>
       </c>
-      <c r="D17" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F17" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="D17" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <f t="shared" ref="A18:A22" si="0">A17+1</f>
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>-25</v>
       </c>
-      <c r="D18" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="D18" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>25</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>-25</v>
       </c>
-      <c r="D19" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F19" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="D19" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>25</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>-25</v>
       </c>
-      <c r="D20" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E20" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F20" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="D20" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>-25</v>
       </c>
-      <c r="D21" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E21" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="D21" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>-25</v>
       </c>
-      <c r="D22" s="5">
-        <v>-50</v>
-      </c>
-      <c r="E22" s="21">
-        <v>-100</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="D22" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
